--- a/01-晨间日记/九宫格晨间日记/05月晨间日志.xlsx
+++ b/01-晨间日记/九宫格晨间日记/05月晨间日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7800" activeTab="4"/>
+    <workbookView windowWidth="20490" windowHeight="7800" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="4" r:id="rId1"/>
@@ -13,13 +13,16 @@
     <sheet name="04" sheetId="2" r:id="rId4"/>
     <sheet name="05" sheetId="5" r:id="rId5"/>
     <sheet name="06" sheetId="6" r:id="rId6"/>
+    <sheet name="07" sheetId="9" r:id="rId7"/>
+    <sheet name="08" sheetId="8" r:id="rId8"/>
+    <sheet name="09" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="60">
   <si>
     <t>梦想</t>
   </si>
@@ -135,10 +138,70 @@
     <t>2、五月回到金融港上班</t>
   </si>
   <si>
+    <t>早晨散步20min，均速10'50''</t>
+  </si>
+  <si>
     <t>2019-05-06  星期1</t>
   </si>
   <si>
     <t>阴   15-22℃</t>
+  </si>
+  <si>
+    <t>1、整理房间的桌子和床，不至于特别乱</t>
+  </si>
+  <si>
+    <t>接私活 赶工到很晚，需要注意时间搭配</t>
+  </si>
+  <si>
+    <t>早晨散步20min，均速10'30''</t>
+  </si>
+  <si>
+    <t>2019-05-06  星期2</t>
+  </si>
+  <si>
+    <t>1、已经开始接手服务比较多的项目</t>
+  </si>
+  <si>
+    <t>晨跑 25min跑了3km，均速是9'20''</t>
+  </si>
+  <si>
+    <t>1、实现游戏反馈功能</t>
+  </si>
+  <si>
+    <t>2019-05-09  星期4</t>
+  </si>
+  <si>
+    <t>晴   19-26℃</t>
+  </si>
+  <si>
+    <t>1、晨跑 25min跑了3km（均速是9 有待提高）</t>
+  </si>
+  <si>
+    <t>五一之后的第一次跑步，25min跑了3km</t>
+  </si>
+  <si>
+    <t>2、重新看《火力少年王》27集（青春活力，追梦）</t>
+  </si>
+  <si>
+    <t>1、《精力管理》 第三章读完</t>
+  </si>
+  <si>
+    <t>2、私活的框架搭建完成</t>
+  </si>
+  <si>
+    <t>晴   16-25℃</t>
+  </si>
+  <si>
+    <t>6:20:00   7:10才起床</t>
+  </si>
+  <si>
+    <t>1、掌握滑动验证码的使用</t>
+  </si>
+  <si>
+    <t>最好在7:00前洗漱，避免与弟弟的时间有冲突</t>
+  </si>
+  <si>
+    <t>2、将之前的实际经验达成框架给私活使用</t>
   </si>
 </sst>
 </file>
@@ -146,10 +209,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -236,9 +299,108 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,42 +422,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -304,70 +430,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,6 +493,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -449,168 +674,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,16 +828,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,9 +868,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,16 +887,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -853,11 +918,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -872,7 +935,7 @@
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -881,133 +944,133 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2166,7 +2229,7 @@
   <sheetPr/>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
@@ -2349,6 +2412,370 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="35.625" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="4" width="35.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="42" customHeight="1" spans="1:4">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:4">
+      <c r="A3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" spans="1:4">
+      <c r="A4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" ht="20" customHeight="1" spans="1:4">
+      <c r="A5" s="15"/>
+      <c r="B5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" ht="20" customHeight="1" spans="1:4">
+      <c r="A6" s="17"/>
+      <c r="B6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" ht="20" customHeight="1" spans="1:4">
+      <c r="A7" s="15"/>
+      <c r="B7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" ht="20" customHeight="1" spans="1:4">
+      <c r="A8" s="19"/>
+      <c r="B8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0.236111111111111</v>
+      </c>
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" ht="20" customHeight="1" spans="1:4">
+      <c r="A9" s="20"/>
+      <c r="B9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="18">
+        <v>0.00694444444444444</v>
+      </c>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" ht="25" customHeight="1" spans="1:4">
+      <c r="A10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" spans="1:4">
+      <c r="A11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" spans="1:4">
+      <c r="A12" s="15"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" ht="20" customHeight="1" spans="1:4">
+      <c r="A13" s="17"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" ht="20" customHeight="1" spans="1:4">
+      <c r="A14" s="15"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" ht="20" customHeight="1" spans="1:4">
+      <c r="A15" s="19"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="19"/>
+    </row>
+    <row r="16" ht="20" customHeight="1" spans="1:4">
+      <c r="A16" s="20"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="35.625" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="4" width="35.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="42" customHeight="1" spans="1:4">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:4">
+      <c r="A3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" spans="1:4">
+      <c r="A4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" ht="20" customHeight="1" spans="1:4">
+      <c r="A5" s="15"/>
+      <c r="B5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" ht="20" customHeight="1" spans="1:4">
+      <c r="A6" s="17"/>
+      <c r="B6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" ht="20" customHeight="1" spans="1:4">
+      <c r="A7" s="15"/>
+      <c r="B7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" ht="20" customHeight="1" spans="1:4">
+      <c r="A8" s="19"/>
+      <c r="B8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0.236111111111111</v>
+      </c>
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" ht="20" customHeight="1" spans="1:4">
+      <c r="A9" s="20"/>
+      <c r="B9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="18">
+        <v>0.972222222222222</v>
+      </c>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" ht="25" customHeight="1" spans="1:4">
+      <c r="A10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" spans="1:4">
+      <c r="A11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" spans="1:4">
+      <c r="A12" s="15"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" ht="20" customHeight="1" spans="1:4">
+      <c r="A13" s="17"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" ht="20" customHeight="1" spans="1:4">
+      <c r="A14" s="15"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" ht="20" customHeight="1" spans="1:4">
+      <c r="A15" s="19"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="19"/>
+    </row>
+    <row r="16" ht="20" customHeight="1" spans="1:4">
+      <c r="A16" s="20"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
@@ -2375,7 +2802,9 @@
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:4">
       <c r="A3" s="8" t="s">
@@ -2391,13 +2820,13 @@
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:4">
       <c r="A4" s="12" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D4" s="12"/>
     </row>
@@ -2417,7 +2846,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D6" s="17"/>
     </row>
@@ -2427,7 +2856,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="18">
-        <v>0.270833333333333</v>
+        <v>0.263888888888889</v>
       </c>
       <c r="D7" s="15"/>
     </row>
@@ -2437,7 +2866,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="18">
-        <v>0.236111111111111</v>
+        <v>0.232638888888889</v>
       </c>
       <c r="D8" s="19"/>
     </row>
@@ -2447,7 +2876,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="18">
-        <v>0.972222222222222</v>
+        <v>0.979166666666667</v>
       </c>
       <c r="D9" s="20"/>
     </row>
@@ -2467,15 +2896,205 @@
       <c r="A11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="25" t="s">
+        <v>50</v>
+      </c>
       <c r="C11" s="26"/>
       <c r="D11" s="12" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:4">
       <c r="A12" s="15"/>
-      <c r="B12" s="27"/>
+      <c r="B12" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" ht="20" customHeight="1" spans="1:4">
+      <c r="A13" s="17"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" ht="20" customHeight="1" spans="1:4">
+      <c r="A14" s="15"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" ht="20" customHeight="1" spans="1:4">
+      <c r="A15" s="19"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="19"/>
+    </row>
+    <row r="16" ht="20" customHeight="1" spans="1:4">
+      <c r="A16" s="20"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="35.625" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="4" width="35.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="42" customHeight="1" spans="1:4">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:4">
+      <c r="A3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" spans="1:4">
+      <c r="A4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" spans="1:4">
+      <c r="A5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" ht="20" customHeight="1" spans="1:4">
+      <c r="A6" s="17"/>
+      <c r="B6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" ht="20" customHeight="1" spans="1:4">
+      <c r="A7" s="15"/>
+      <c r="B7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" ht="20" customHeight="1" spans="1:4">
+      <c r="A8" s="19"/>
+      <c r="B8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0.232638888888889</v>
+      </c>
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" ht="20" customHeight="1" spans="1:4">
+      <c r="A9" s="20"/>
+      <c r="B9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="18">
+        <v>0.979166666666667</v>
+      </c>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" ht="25" customHeight="1" spans="1:4">
+      <c r="A10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" spans="1:4">
+      <c r="A11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" spans="1:4">
+      <c r="A12" s="15"/>
+      <c r="B12" s="27" t="s">
+        <v>59</v>
+      </c>
       <c r="C12" s="28"/>
       <c r="D12" s="15"/>
     </row>
